--- a/modifiedWorkbook.xlsx
+++ b/modifiedWorkbook.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misha\OneDrive - University of Waterloo\2020_Winter\G483\A02\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misha\Documents\GitHub\fork\483Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CE1EC2-2C6E-4B82-B153-8D77892E5CBD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C405C9CA-41CF-42F5-8CE8-694632DC700B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1260" windowWidth="13680" windowHeight="9532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="577" yWindow="480" windowWidth="15556" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toronto Wellbeing Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1553,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S141"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1569,7 +1570,7 @@
     <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1603,26 +1604,8 @@
       <c r="L1" t="s">
         <v>150</v>
       </c>
-      <c r="N1" t="s">
-        <v>157</v>
-      </c>
-      <c r="O1" t="s">
-        <v>155</v>
-      </c>
-      <c r="P1" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>152</v>
-      </c>
-      <c r="R1" t="s">
-        <v>153</v>
-      </c>
-      <c r="S1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1660,30 +1643,8 @@
         <f>($D2-MIN($D$2:$D$141))/(MAX($D$2:$D$141)-MIN($D$2:$D$141))</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="N2" t="s">
-        <v>156</v>
-      </c>
-      <c r="O2" t="s">
-        <v>151</v>
-      </c>
-      <c r="P2">
-        <f>RSQ($I$2:$I$141,$I$2:$I$141)</f>
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <f>RSQ($I$2:$I$141,$J$2:$J$141)</f>
-        <v>0.58126186816375414</v>
-      </c>
-      <c r="R2">
-        <f>RSQ($I$2:$I$141,$K$2:$K$141)</f>
-        <v>0.26743620559154602</v>
-      </c>
-      <c r="S2">
-        <f>RSQ($I$2:$I$141,$L$2:$L$141)</f>
-        <v>0.14483308966475927</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1721,27 +1682,8 @@
         <f t="shared" ref="L3:L66" si="3">($D3-MIN($D$2:$D$141))/(MAX($D$2:$D$141)-MIN($D$2:$D$141))</f>
         <v>0.13793103448275862</v>
       </c>
-      <c r="O3" t="s">
-        <v>152</v>
-      </c>
-      <c r="P3">
-        <f>RSQ(J$2:J$141,I$2:I$141)</f>
-        <v>0.58126186816375414</v>
-      </c>
-      <c r="Q3">
-        <f>RSQ($J$2:$J$141,$J$2:$J$141)</f>
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <f>RSQ($J$2:$J$141,$K$2:$K$141)</f>
-        <v>0.18368005886827407</v>
-      </c>
-      <c r="S3">
-        <f>RSQ($J$2:$J$141,$L$2:$L$141)</f>
-        <v>0.10417864962462689</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1779,27 +1721,8 @@
         <f t="shared" si="3"/>
         <v>4.0229885057471264E-2</v>
       </c>
-      <c r="O4" t="s">
-        <v>153</v>
-      </c>
-      <c r="P4">
-        <f>RSQ(K$2:K$141, I$2:I$141)</f>
-        <v>0.26743620559154602</v>
-      </c>
-      <c r="Q4">
-        <f>RSQ($K$2:$K$141,$J$2:$J$141)</f>
-        <v>0.18368005886827407</v>
-      </c>
-      <c r="R4">
-        <f>RSQ($K$2:$K$141,$K$2:$K$141)</f>
-        <v>1.0000000000000004</v>
-      </c>
-      <c r="S4">
-        <f>RSQ($K$2:$K$141,$L$2:$L$141)</f>
-        <v>0.44509379908793656</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1837,27 +1760,8 @@
         <f t="shared" si="3"/>
         <v>6.3218390804597707E-2</v>
       </c>
-      <c r="O5" t="s">
-        <v>154</v>
-      </c>
-      <c r="P5">
-        <f>RSQ(L$2:L$141,$I$2:$I$141)</f>
-        <v>0.14483308966475927</v>
-      </c>
-      <c r="Q5">
-        <f>RSQ($L$2:$L$141,$J$2:$J$141)</f>
-        <v>0.10417864962462689</v>
-      </c>
-      <c r="R5">
-        <f>RSQ($L$2:$L$141,$K$2:$K$141)</f>
-        <v>0.44509379908793656</v>
-      </c>
-      <c r="S5">
-        <f>RSQ($L$2:$L$141,$L$2:$L$141)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1896,7 +1800,7 @@
         <v>5.1724137931034482E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1935,7 +1839,7 @@
         <v>6.8965517241379309E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1974,7 +1878,7 @@
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2013,7 +1917,7 @@
         <v>1.7241379310344827E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2052,7 +1956,7 @@
         <v>1.7241379310344827E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2091,7 +1995,7 @@
         <v>2.2988505747126436E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2130,7 +2034,7 @@
         <v>4.0229885057471264E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2169,7 +2073,7 @@
         <v>1.1494252873563218E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2208,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2247,7 +2151,7 @@
         <v>0.17241379310344829</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -7159,6 +7063,128 @@
       <c r="L141">
         <f t="shared" si="11"/>
         <v>2.2988505747126436E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18756738-B0CE-48E1-B7C0-42B597FECA32}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2">
+        <f>RSQ('Toronto Wellbeing Data'!$I$2:$I$141,'Toronto Wellbeing Data'!$I$2:$I$141)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>RSQ('Toronto Wellbeing Data'!$I$2:$I$141,'Toronto Wellbeing Data'!$J$2:$J$141)</f>
+        <v>0.58126186816375414</v>
+      </c>
+      <c r="E2">
+        <f>RSQ('Toronto Wellbeing Data'!$I$2:$I$141,'Toronto Wellbeing Data'!$K$2:$K$141)</f>
+        <v>0.26743620559154602</v>
+      </c>
+      <c r="F2">
+        <f>RSQ('Toronto Wellbeing Data'!$I$2:$I$141,'Toronto Wellbeing Data'!$L$2:$L$141)</f>
+        <v>0.14483308966475927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3">
+        <f>RSQ('Toronto Wellbeing Data'!J$2:J$141,'Toronto Wellbeing Data'!I$2:I$141)</f>
+        <v>0.58126186816375414</v>
+      </c>
+      <c r="D3">
+        <f>RSQ('Toronto Wellbeing Data'!$J$2:$J$141,'Toronto Wellbeing Data'!$J$2:$J$141)</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>RSQ('Toronto Wellbeing Data'!$J$2:$J$141,'Toronto Wellbeing Data'!$K$2:$K$141)</f>
+        <v>0.18368005886827407</v>
+      </c>
+      <c r="F3">
+        <f>RSQ('Toronto Wellbeing Data'!$J$2:$J$141,'Toronto Wellbeing Data'!$L$2:$L$141)</f>
+        <v>0.10417864962462689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4">
+        <f>RSQ('Toronto Wellbeing Data'!K$2:K$141, 'Toronto Wellbeing Data'!I$2:I$141)</f>
+        <v>0.26743620559154602</v>
+      </c>
+      <c r="D4">
+        <f>RSQ('Toronto Wellbeing Data'!$K$2:$K$141,'Toronto Wellbeing Data'!$J$2:$J$141)</f>
+        <v>0.18368005886827407</v>
+      </c>
+      <c r="E4">
+        <f>RSQ('Toronto Wellbeing Data'!$K$2:$K$141,'Toronto Wellbeing Data'!$K$2:$K$141)</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="F4">
+        <f>RSQ('Toronto Wellbeing Data'!$K$2:$K$141,'Toronto Wellbeing Data'!$L$2:$L$141)</f>
+        <v>0.44509379908793656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5">
+        <f>RSQ('Toronto Wellbeing Data'!L$2:L$141,'Toronto Wellbeing Data'!$I$2:$I$141)</f>
+        <v>0.14483308966475927</v>
+      </c>
+      <c r="D5">
+        <f>RSQ('Toronto Wellbeing Data'!$L$2:$L$141,'Toronto Wellbeing Data'!$J$2:$J$141)</f>
+        <v>0.10417864962462689</v>
+      </c>
+      <c r="E5">
+        <f>RSQ('Toronto Wellbeing Data'!$L$2:$L$141,'Toronto Wellbeing Data'!$K$2:$K$141)</f>
+        <v>0.44509379908793656</v>
+      </c>
+      <c r="F5">
+        <f>RSQ('Toronto Wellbeing Data'!$L$2:$L$141,'Toronto Wellbeing Data'!$L$2:$L$141)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/modifiedWorkbook.xlsx
+++ b/modifiedWorkbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misha\Documents\GitHub\fork\483Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C405C9CA-41CF-42F5-8CE8-694632DC700B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5483D7C-AAF1-4434-8824-989D2A065E29}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="577" yWindow="480" windowWidth="15556" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2033" yWindow="1425" windowWidth="15555" windowHeight="12105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toronto Wellbeing Data" sheetId="1" r:id="rId1"/>
@@ -1556,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
@@ -7074,8 +7074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18756738-B0CE-48E1-B7C0-42B597FECA32}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/modifiedWorkbook.xlsx
+++ b/modifiedWorkbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misha\Documents\GitHub\fork\483Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5483D7C-AAF1-4434-8824-989D2A065E29}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F17B1F-2AED-4CC5-A0C3-706192DC20B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2033" yWindow="1425" windowWidth="15555" windowHeight="12105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2033" yWindow="975" windowWidth="15555" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toronto Wellbeing Data" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="160">
   <si>
     <t>Neighbourhood</t>
   </si>
@@ -503,6 +503,12 @@
   </si>
   <si>
     <t>R2</t>
+  </si>
+  <si>
+    <t>LowIncPop/TotalPop</t>
+  </si>
+  <si>
+    <t>norm_low/total</t>
   </si>
 </sst>
 </file>
@@ -1554,10 +1560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L141"/>
+  <dimension ref="A1:M141"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1570,7 +1576,7 @@
     <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1592,6 +1598,9 @@
       <c r="G1" t="s">
         <v>146</v>
       </c>
+      <c r="H1" t="s">
+        <v>158</v>
+      </c>
       <c r="I1" t="s">
         <v>147</v>
       </c>
@@ -1604,8 +1613,11 @@
       <c r="L1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1626,6 +1638,10 @@
       </c>
       <c r="G2" s="561">
         <v>23.82</v>
+      </c>
+      <c r="H2">
+        <f>E2/F2</f>
+        <v>0.22784582132564843</v>
       </c>
       <c r="I2" s="560">
         <f>($F2-MIN($F$2:$F$141))/(MAX($F$2:$F$141)-MIN($F$2:$F$141))</f>
@@ -1643,8 +1659,12 @@
         <f>($D2-MIN($D$2:$D$141))/(MAX($D$2:$D$141)-MIN($D$2:$D$141))</f>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M2">
+        <f>(H2-MIN($H$2:$H$141))/(MAX($H$2:$H$141)-MIN($H$2:$H$141))</f>
+        <v>0.24662511108983612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1666,24 +1686,32 @@
       <c r="G3" s="562">
         <v>37.57</v>
       </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="0">E3/F3</f>
+        <v>0.35018510651210777</v>
+      </c>
       <c r="I3" s="560">
-        <f t="shared" ref="I3:I66" si="0">($F3-MIN($F$2:$F$141))/(MAX($F$2:$F$141)-MIN($F$2:$F$141))</f>
+        <f t="shared" ref="I3:I66" si="1">($F3-MIN($F$2:$F$141))/(MAX($F$2:$F$141)-MIN($F$2:$F$141))</f>
         <v>0.44453620062019683</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="1">($E3-MIN($E$2:$E$141))/(MAX($E$2:$E$141)-MIN($E$2:$E$141))</f>
+        <f t="shared" ref="J3:J66" si="2">($E3-MIN($E$2:$E$141))/(MAX($E$2:$E$141)-MIN($E$2:$E$141))</f>
         <v>0.73997326203208558</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="2">($C3-MIN($C$2:$C$141))/(MAX($C$2:$C$141)-MIN($C$2:$C$141))</f>
+        <f t="shared" ref="K3:K66" si="3">($C3-MIN($C$2:$C$141))/(MAX($C$2:$C$141)-MIN($C$2:$C$141))</f>
         <v>3.041454702889923E-2</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="3">($D3-MIN($D$2:$D$141))/(MAX($D$2:$D$141)-MIN($D$2:$D$141))</f>
+        <f t="shared" ref="L3:L66" si="4">($D3-MIN($D$2:$D$141))/(MAX($D$2:$D$141)-MIN($D$2:$D$141))</f>
         <v>0.13793103448275862</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="5">(H3-MIN($H$2:$H$141))/(MAX($H$2:$H$141)-MIN($H$2:$H$141))</f>
+        <v>0.41694361051124557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1705,24 +1733,32 @@
       <c r="G4" s="563">
         <v>42.26</v>
       </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.22683397683397682</v>
+      </c>
       <c r="I4" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.3755561547795603E-2</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12566844919786097</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5333549806977667E-2</v>
       </c>
       <c r="L4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0229885057471264E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M4">
+        <f t="shared" si="5"/>
+        <v>0.24521643982609065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1744,24 +1780,32 @@
       <c r="G5" s="564">
         <v>23.31</v>
       </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.20609744515148637</v>
+      </c>
       <c r="I5" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6603748146150735E-2</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11363636363636363</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4900602518310062E-2</v>
       </c>
       <c r="L5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.3218390804597707E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>0.21634742237202109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1783,24 +1827,32 @@
       <c r="G6" s="565">
         <v>24.71</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.29505076142131981</v>
+      </c>
       <c r="I6" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8520291222866385E-2</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15508021390374332</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0462892809467115E-2</v>
       </c>
       <c r="L6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.1724137931034482E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>0.3401865908169332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1822,24 +1874,32 @@
       <c r="G7" s="566">
         <v>35.69</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.30727272727272725</v>
+      </c>
       <c r="I7" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25992652015639744</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42045454545454547</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3306995706606055E-2</v>
       </c>
       <c r="L7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.8965517241379309E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>0.35720178655408974</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1861,24 +1921,32 @@
       <c r="G8" s="567">
         <v>30.46</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.15751940783534935</v>
+      </c>
       <c r="I8" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26255561547795603</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2018716577540107</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8292022946206299E-2</v>
       </c>
       <c r="L8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4482758620689655E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>0.1487179735983786</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1900,24 +1968,32 @@
       <c r="G9" s="568">
         <v>32.82</v>
       </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.16258677383997078</v>
+      </c>
       <c r="I9" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3665228529054869E-2</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.7566844919786099E-2</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.6848143738499838E-3</v>
       </c>
       <c r="L9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7241379310344827E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>0.15577266721221469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1939,24 +2015,32 @@
       <c r="G10" s="569">
         <v>46.41</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.10685548760862569</v>
+      </c>
       <c r="I10" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15097074288796009</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.9545454545454544E-2</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5838654977089871E-2</v>
       </c>
       <c r="L10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7241379310344827E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>7.8184597057311192E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1978,24 +2062,32 @@
       <c r="G11" s="570">
         <v>39.520000000000003</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>8.5965071034295543E-2</v>
+      </c>
       <c r="I11" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5401105568289065E-2</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2085561497326207E-2</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1653497853303028E-2</v>
       </c>
       <c r="L11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2988505747126436E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>4.9101343891288458E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2017,24 +2109,32 @@
       <c r="G12" s="571">
         <v>10.43</v>
       </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.11459005810200129</v>
+      </c>
       <c r="I12" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20242348658487258</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11096256684491979</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2044232781325539E-2</v>
       </c>
       <c r="L12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0229885057471264E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>8.8952523632107372E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2056,24 +2156,32 @@
       <c r="G13" s="572">
         <v>7.99</v>
       </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>9.3803297328027294E-2</v>
+      </c>
       <c r="I13" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.7025077524605639E-2</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4759358288770054E-2</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7750838835371794E-2</v>
       </c>
       <c r="L13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1494252873563218E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>6.0013578162063701E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2095,24 +2203,32 @@
       <c r="G14" s="573">
         <v>15.41</v>
       </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.17049291019581364</v>
+      </c>
       <c r="I14" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.8833086153431301E-2</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1036096256684492</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0168127863765921E-2</v>
       </c>
       <c r="L14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>0.16677944462059902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2134,24 +2250,32 @@
       <c r="G15" s="574">
         <v>31.01</v>
       </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0.2636187876720118</v>
+      </c>
       <c r="I15" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.6301065120668734</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.74331550802139035</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.48197856910921094</v>
       </c>
       <c r="L15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17241379310344829</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>0.29642757592097402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2173,24 +2297,32 @@
       <c r="G16" s="575">
         <v>43.15</v>
       </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>5.0695717829791827E-2</v>
+      </c>
       <c r="I16" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5402453822300119E-2</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2687520294404158E-2</v>
       </c>
       <c r="L16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7471264367816091E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2212,24 +2344,32 @@
       <c r="G17" s="576">
         <v>31.23</v>
       </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0.12294918366532274</v>
+      </c>
       <c r="I17" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.31134555750303355</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17446524064171123</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.5158566944474514E-2</v>
       </c>
       <c r="L17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.3218390804597707E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>0.10058994427135784</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2251,24 +2391,32 @@
       <c r="G18" s="577">
         <v>21.59</v>
       </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.12925450476975622</v>
+      </c>
       <c r="I18" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.46155790750977482</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26203208556149732</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.075693617635386E-2</v>
       </c>
       <c r="L18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13793103448275862</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>0.10936809617277272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2290,24 +2438,32 @@
       <c r="G19" s="578">
         <v>24.84</v>
       </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0.21024164703829712</v>
+      </c>
       <c r="I19" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2344613725225835E-2</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12967914438502673</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.2560883212468887E-2</v>
       </c>
       <c r="L19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.1954022988505746E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>0.22211690390516237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2329,24 +2485,32 @@
       <c r="G20" s="579">
         <v>28.08</v>
       </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0.1507338357794526</v>
+      </c>
       <c r="I20" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.9104085209653497E-2</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0187165775401072E-2</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.2001298841866003E-3</v>
       </c>
       <c r="L20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2988505747126436E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>0.13927122516826682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2368,24 +2532,32 @@
       <c r="G21" s="580">
         <v>11.41</v>
       </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>9.0426414468226315E-2</v>
+      </c>
       <c r="I21" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.2304840231899693E-2</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1443850267379678E-2</v>
       </c>
       <c r="K21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0631020673233034E-2</v>
       </c>
       <c r="L21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2988505747126436E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>5.5312344044775932E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2407,24 +2579,32 @@
       <c r="G22" s="581">
         <v>32.33</v>
       </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>0.26820231958762886</v>
+      </c>
       <c r="I22" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8405689631926654E-2</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19117647058823528</v>
       </c>
       <c r="K22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.3564960132770502E-2</v>
       </c>
       <c r="L22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.8965517241379309E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>0.30280868462802768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2446,24 +2626,32 @@
       <c r="G23" s="582">
         <v>20.52</v>
       </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0.25924734641363784</v>
+      </c>
       <c r="I23" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15113927463934204</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23796791443850268</v>
       </c>
       <c r="K23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8833207057040804E-2</v>
       </c>
       <c r="L23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.10919540229885058</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>0.29034173592035334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2485,24 +2673,32 @@
       <c r="G24" s="583">
         <v>21.71</v>
       </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0.13337063980600633</v>
+      </c>
       <c r="I24" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9856410947822564E-2</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4171122994652413E-2</v>
       </c>
       <c r="K24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.6373705668001589E-2</v>
       </c>
       <c r="L24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.18390804597701149</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>0.11509850355353778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2524,24 +2720,32 @@
       <c r="G25" s="584">
         <v>41.84</v>
       </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0.36527579702810875</v>
+      </c>
       <c r="I25" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25549413509505192</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.49933155080213903</v>
       </c>
       <c r="K25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3703864054551358E-2</v>
       </c>
       <c r="L25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16091954022988506</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>0.43795259188628682</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2563,24 +2767,32 @@
       <c r="G26" s="585">
         <v>41.05</v>
       </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0.31517496966317932</v>
+      </c>
       <c r="I26" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.40302683025482</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.61096256684491979</v>
       </c>
       <c r="K26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.8159252444348233E-2</v>
       </c>
       <c r="L26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.31609195402298851</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>0.36820314285558148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2602,24 +2814,32 @@
       <c r="G27" s="586">
         <v>23.72</v>
       </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0.22110007988131919</v>
+      </c>
       <c r="I27" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.47989416206013213</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.48663101604278075</v>
       </c>
       <c r="K27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15268607713677526</v>
       </c>
       <c r="L27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.31034482758620691</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>0.23723381410349301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2641,24 +2861,32 @@
       <c r="G28" s="587">
         <v>47</v>
       </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0.28811655129924257</v>
+      </c>
       <c r="I28" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35418632870432787</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.41270700292239421</v>
       </c>
       <c r="L28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.33908045977011492</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>0.33053291120890765</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2680,24 +2908,32 @@
       <c r="G29" s="588">
         <v>16.55</v>
       </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>0.2997686349461825</v>
+      </c>
       <c r="I29" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.6694081164891469E-2</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16778074866310161</v>
       </c>
       <c r="K29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.200815384060324E-3</v>
       </c>
       <c r="L29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7471264367816091E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>0.34675472743788793</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2719,24 +2955,32 @@
       <c r="G30" s="589">
         <v>14.42</v>
       </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0.17505686875679952</v>
+      </c>
       <c r="I30" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.9559120938384794E-2</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.6898395721925134E-2</v>
       </c>
       <c r="K30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4431576288920158E-3</v>
       </c>
       <c r="L30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1494252873563218E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>0.1731333036638644</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2758,24 +3002,32 @@
       <c r="G31" s="590">
         <v>43.1</v>
       </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>0.26918961536295544</v>
+      </c>
       <c r="I31" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18841849804503169</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28810160427807485</v>
       </c>
       <c r="K31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8784861276472925E-2</v>
       </c>
       <c r="L31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.6206896551724144E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M31">
+        <f t="shared" si="5"/>
+        <v>0.30418317962105001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2797,24 +3049,32 @@
       <c r="G32" s="591">
         <v>21.66</v>
       </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>0.19251553634152932</v>
+      </c>
       <c r="I32" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13865107186193878</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15909090909090909</v>
       </c>
       <c r="K32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26893242414402713</v>
       </c>
       <c r="L32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13793103448275862</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>0.1974389390972934</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2836,24 +3096,32 @@
       <c r="G33" s="592">
         <v>43.98</v>
       </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>0.23958519578043982</v>
+      </c>
       <c r="I33" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2661959013078064</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.32687165775401067</v>
       </c>
       <c r="K33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4341018147707183E-2</v>
       </c>
       <c r="L33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2988505747126436E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M33">
+        <f t="shared" si="5"/>
+        <v>0.26296845197366364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2875,24 +3143,32 @@
       <c r="G34" s="593">
         <v>19.350000000000001</v>
       </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>0.15541525012141816</v>
+      </c>
       <c r="I34" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16676216799244978</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13970588235294118</v>
       </c>
       <c r="K34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7991124580582313E-2</v>
       </c>
       <c r="L34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7241379310344827E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>0.14578860398634813</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2914,24 +3190,32 @@
       <c r="G35" s="594">
         <v>18.8</v>
       </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>0.16506016506016505</v>
+      </c>
       <c r="I35" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15666711608467035</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14371657754010694</v>
       </c>
       <c r="K35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8105494822672005E-2</v>
       </c>
       <c r="L35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>0.15921607691060816</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2953,24 +3237,32 @@
       <c r="G36" s="595">
         <v>24.63</v>
       </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>0.24891527746060743</v>
+      </c>
       <c r="I36" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33195699069704732</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.40574866310160429</v>
       </c>
       <c r="K36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9843417397265216E-2</v>
       </c>
       <c r="L36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8735632183908046E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>0.27595761983436662</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2992,24 +3284,32 @@
       <c r="G37" s="596">
         <v>26.14</v>
       </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>0.28072678444043475</v>
+      </c>
       <c r="I37" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2907846838344344</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.41577540106951871</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9848829238373558E-2</v>
       </c>
       <c r="L37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0229885057471264E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M37">
+        <f t="shared" si="5"/>
+        <v>0.32024501390308363</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -3031,24 +3331,32 @@
       <c r="G38" s="597">
         <v>17.670000000000002</v>
       </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>0.18008974964572508</v>
+      </c>
       <c r="I38" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17458204125657273</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17245989304812834</v>
       </c>
       <c r="K38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1106180322545728E-2</v>
       </c>
       <c r="L38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4482758620689655E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M38">
+        <f t="shared" si="5"/>
+        <v>0.18013998773482354</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -3070,24 +3378,32 @@
       <c r="G39" s="598">
         <v>19.11</v>
       </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>0.76899282355852516</v>
+      </c>
       <c r="I39" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16157139004988541</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.79946524064171121</v>
       </c>
       <c r="K39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.7191254464768913E-2</v>
       </c>
       <c r="L39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5977011494252873E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -3109,24 +3425,32 @@
       <c r="G40" s="599">
         <v>47.74</v>
       </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>0.10500946806679291</v>
+      </c>
       <c r="I40" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28075704462720774</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13168449197860962</v>
       </c>
       <c r="K40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.1586751812966772E-2</v>
       </c>
       <c r="L40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8735632183908046E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M40">
+        <f t="shared" si="5"/>
+        <v>7.5614602653728089E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -3148,24 +3472,32 @@
       <c r="G41" s="600">
         <v>18.23</v>
       </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>0.18807545474960702</v>
+      </c>
       <c r="I41" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18934542267763246</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19251336898395721</v>
       </c>
       <c r="K41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.7437673629902229E-2</v>
       </c>
       <c r="L41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0229885057471264E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M41">
+        <f t="shared" si="5"/>
+        <v>0.19125753928861994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -3187,24 +3519,32 @@
       <c r="G42" s="601">
         <v>22.26</v>
       </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>8.7416360889272612E-2</v>
+      </c>
       <c r="I42" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5318187946609141E-2</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2727272727272728E-2</v>
       </c>
       <c r="K42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14298084208247647</v>
       </c>
       <c r="L42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0229885057471264E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M42">
+        <f t="shared" si="5"/>
+        <v>5.1121802895511638E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -3226,24 +3566,32 @@
       <c r="G43" s="602">
         <v>21.31</v>
       </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>0.13684780646326053</v>
+      </c>
       <c r="I43" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35590535256842387</v>
       </c>
       <c r="J43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22192513368983957</v>
       </c>
       <c r="K43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17657033589493812</v>
       </c>
       <c r="L43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.4712643678160925E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M43">
+        <f t="shared" si="5"/>
+        <v>0.1199393509264734</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -3265,24 +3613,32 @@
       <c r="G44" s="603">
         <v>26.9</v>
       </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>0.24671616219303255</v>
+      </c>
       <c r="I44" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18425576378589725</v>
       </c>
       <c r="J44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25735294117647056</v>
       </c>
       <c r="K44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4557491792040986E-2</v>
       </c>
       <c r="L44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7471264367816091E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M44">
+        <f t="shared" si="5"/>
+        <v>0.27289605206521372</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -3304,24 +3660,32 @@
       <c r="G45" s="604">
         <v>21.66</v>
       </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>0.35562850499247711</v>
+      </c>
       <c r="I45" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25879735742213833</v>
       </c>
       <c r="J45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.48997326203208558</v>
       </c>
       <c r="K45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9013601760652307E-2</v>
       </c>
       <c r="L45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5977011494252873E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M45">
+        <f t="shared" si="5"/>
+        <v>0.42452180961152852</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -3343,24 +3707,32 @@
       <c r="G46" s="605">
         <v>33.6</v>
       </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>0.2068668294785232</v>
+      </c>
       <c r="I46" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4757314278009977</v>
       </c>
       <c r="J46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.44986631016042783</v>
       </c>
       <c r="K46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7311758126781396E-2</v>
       </c>
       <c r="L46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5977011494252873E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M46">
+        <f t="shared" si="5"/>
+        <v>0.21741854506053068</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -3382,24 +3754,32 @@
       <c r="G47" s="606">
         <v>22.56</v>
       </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>0.22379567581236565</v>
+      </c>
       <c r="I47" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15574019145206958</v>
       </c>
       <c r="J47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2052139037433155</v>
       </c>
       <c r="K47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6055128621423675E-2</v>
       </c>
       <c r="L47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2988505747126436E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M47">
+        <f t="shared" si="5"/>
+        <v>0.24098657310745933</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -3421,24 +3801,32 @@
       <c r="G48" s="607">
         <v>37.869999999999997</v>
       </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>0.26024915899597056</v>
+      </c>
       <c r="I48" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34505190777942563</v>
       </c>
       <c r="J48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.43917112299465239</v>
       </c>
       <c r="K48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11206118988346501</v>
       </c>
       <c r="L48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.6206896551724144E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M48">
+        <f t="shared" si="5"/>
+        <v>0.29173644094469892</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -3460,24 +3848,32 @@
       <c r="G49" s="608">
         <v>48.46</v>
       </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>0.2568796504074643</v>
+      </c>
       <c r="I49" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17454833490629634</v>
       </c>
       <c r="J49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25935828877005346</v>
       </c>
       <c r="K49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.7088429483710353E-2</v>
       </c>
       <c r="L49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7241379310344827E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M49">
+        <f t="shared" si="5"/>
+        <v>0.28704547315207807</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -3499,24 +3895,32 @@
       <c r="G50" s="609">
         <v>35.61</v>
       </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>0.23414930819522578</v>
+      </c>
       <c r="I50" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11084333288391533</v>
       </c>
       <c r="J50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17446524064171123</v>
       </c>
       <c r="K50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4852256737742178E-2</v>
       </c>
       <c r="L50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7241379310344827E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M50">
+        <f t="shared" si="5"/>
+        <v>0.25540070940326975</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -3538,24 +3942,32 @@
       <c r="G51" s="610">
         <v>29.12</v>
       </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>0.28576753432316582</v>
+      </c>
       <c r="I51" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16044222731562627</v>
       </c>
       <c r="J51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27606951871657753</v>
       </c>
       <c r="K51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.5633726593787208E-2</v>
       </c>
       <c r="L51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.0459770114942528E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M51">
+        <f t="shared" si="5"/>
+        <v>0.3272626530422767</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -3577,24 +3989,32 @@
       <c r="G52" s="611">
         <v>28.9</v>
       </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>0.2643058254352223</v>
+      </c>
       <c r="I52" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.73912970203586359</v>
       </c>
       <c r="J52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.85962566844919786</v>
       </c>
       <c r="K52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.6763719017209648E-2</v>
       </c>
       <c r="L52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.6206896551724144E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M52">
+        <f t="shared" si="5"/>
+        <v>0.2973840572400982</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -3616,24 +4036,32 @@
       <c r="G53" s="612">
         <v>32.119999999999997</v>
       </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>0.19863525892690223</v>
+      </c>
       <c r="I53" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24974720237292705</v>
       </c>
       <c r="J53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25267379679144386</v>
       </c>
       <c r="K53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1468773676804849</v>
       </c>
       <c r="L53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5977011494252873E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M53">
+        <f t="shared" si="5"/>
+        <v>0.20595870415908393</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -3655,24 +4083,32 @@
       <c r="G54" s="613">
         <v>20.8</v>
       </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>0.26839661642180246</v>
+      </c>
       <c r="I54" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15413913981394095</v>
       </c>
       <c r="J54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25066844919786097</v>
       </c>
       <c r="K54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.109896453440127</v>
       </c>
       <c r="L54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8735632183908046E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M54">
+        <f t="shared" si="5"/>
+        <v>0.30307918110173471</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -3694,24 +4130,32 @@
       <c r="G55" s="614">
         <v>37.630000000000003</v>
       </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>0.20937081659973225</v>
+      </c>
       <c r="I55" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20388971282189564</v>
       </c>
       <c r="J55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22994652406417113</v>
       </c>
       <c r="K55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2326730887181153E-2</v>
       </c>
       <c r="L55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.8965517241379309E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M55">
+        <f t="shared" si="5"/>
+        <v>0.22090454980875907</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -3733,24 +4177,32 @@
       <c r="G56" s="615">
         <v>34.53</v>
       </c>
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>0.41216600341102899</v>
+      </c>
       <c r="I56" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2448934879331266</v>
       </c>
       <c r="J56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.55013368983957223</v>
       </c>
       <c r="K56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10513403326478335</v>
       </c>
       <c r="L56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11494252873563218</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M56">
+        <f t="shared" si="5"/>
+        <v>0.50323227352352351</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -3772,24 +4224,32 @@
       <c r="G57" s="616">
         <v>40.94</v>
       </c>
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>5.5265034466365583E-2</v>
+      </c>
       <c r="I57" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17276189834164757</v>
       </c>
       <c r="J57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.074866310160428E-2</v>
       </c>
       <c r="K57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.3258649926038173E-2</v>
       </c>
       <c r="L57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4482758620689655E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M57">
+        <f t="shared" si="5"/>
+        <v>6.3613184574063562E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -3811,24 +4271,32 @@
       <c r="G58" s="617">
         <v>31.36</v>
       </c>
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>0.18697278024176014</v>
+      </c>
       <c r="I58" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2951328030200888E-2</v>
       </c>
       <c r="J58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11229946524064172</v>
       </c>
       <c r="K58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9626943752931413E-2</v>
       </c>
       <c r="L58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5977011494252873E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M58">
+        <f t="shared" si="5"/>
+        <v>0.18972241614938889</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -3850,24 +4318,32 @@
       <c r="G59" s="618">
         <v>24.76</v>
       </c>
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>0.12130401819560273</v>
+      </c>
       <c r="I59" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4762033167048673E-2</v>
       </c>
       <c r="J59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3449197860962567E-2</v>
       </c>
       <c r="K59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.6228668326297948E-3</v>
       </c>
       <c r="L59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1494252873563218E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M59">
+        <f t="shared" si="5"/>
+        <v>9.8299575207360365E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -3889,24 +4365,32 @@
       <c r="G60" s="619">
         <v>24.56</v>
       </c>
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>0.13620488940628639</v>
+      </c>
       <c r="I60" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17869421599029256</v>
       </c>
       <c r="J60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
       <c r="K60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.401017426128369E-2</v>
       </c>
       <c r="L60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.1724137931034482E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M60">
+        <f t="shared" si="5"/>
+        <v>0.11904429364189492</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -3928,24 +4412,32 @@
       <c r="G61" s="620">
         <v>27.87</v>
       </c>
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>0.13986013986013987</v>
+      </c>
       <c r="I61" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1706889577996494E-2</v>
       </c>
       <c r="J61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2112299465240643E-2</v>
       </c>
       <c r="K61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2729732655049247E-3</v>
       </c>
       <c r="L61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.1724137931034482E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M61">
+        <f t="shared" si="5"/>
+        <v>0.12413306599626091</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -3967,24 +4459,32 @@
       <c r="G62" s="621">
         <v>38.19</v>
       </c>
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>0.33029394886182489</v>
+      </c>
       <c r="I62" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1534650128084131</v>
       </c>
       <c r="J62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.31483957219251335</v>
       </c>
       <c r="K62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2116390662770141E-2</v>
       </c>
       <c r="L62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.1724137931034482E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M62">
+        <f t="shared" si="5"/>
+        <v>0.38925150721354018</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -4006,24 +4506,32 @@
       <c r="G63" s="622">
         <v>35.29</v>
       </c>
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>0.16463215003975493</v>
+      </c>
       <c r="I63" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24949440474585413</v>
       </c>
       <c r="J63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20387700534759359</v>
       </c>
       <c r="K63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.3180358624670777E-2</v>
       </c>
       <c r="L63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7471264367816091E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M63">
+        <f t="shared" si="5"/>
+        <v>0.15862020228296936</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -4045,24 +4553,32 @@
       <c r="G64" s="623">
         <v>31.53</v>
       </c>
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>8.1606157555524639E-2</v>
+      </c>
       <c r="I64" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25262909532155858</v>
       </c>
       <c r="J64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.6229946524064169E-2</v>
       </c>
       <c r="K64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.3715409315582491E-2</v>
       </c>
       <c r="L64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13793103448275862</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M64">
+        <f t="shared" si="5"/>
+        <v>4.3032944834677109E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -4084,24 +4600,32 @@
       <c r="G65" s="624">
         <v>29.04</v>
       </c>
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>0.14113707040905829</v>
+      </c>
       <c r="I65" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10051233652420116</v>
       </c>
       <c r="J65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.6898395721925134E-2</v>
       </c>
       <c r="K65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2735866074972039E-2</v>
       </c>
       <c r="L65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5977011494252873E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M65">
+        <f t="shared" si="5"/>
+        <v>0.12591078518618154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -4123,24 +4647,32 @@
       <c r="G66" s="625">
         <v>44.29</v>
       </c>
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>0.20253866962613581</v>
+      </c>
       <c r="I66" s="560">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13212889308345693</v>
       </c>
       <c r="J66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16377005347593582</v>
       </c>
       <c r="K66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1142259263268029E-2</v>
       </c>
       <c r="L66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.0459770114942528E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M66">
+        <f t="shared" si="5"/>
+        <v>0.21139296063610741</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -4162,24 +4694,32 @@
       <c r="G67" s="626">
         <v>32.159999999999997</v>
       </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="6">E67/F67</f>
+        <v>0.14483757500517278</v>
+      </c>
       <c r="I67" s="560">
-        <f t="shared" ref="I67:I130" si="4">($F67-MIN($F$2:$F$141))/(MAX($F$2:$F$141)-MIN($F$2:$F$141))</f>
+        <f t="shared" ref="I67:I130" si="7">($F67-MIN($F$2:$F$141))/(MAX($F$2:$F$141)-MIN($F$2:$F$141))</f>
         <v>5.2059458001887556E-2</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="5">($E67-MIN($E$2:$E$141))/(MAX($E$2:$E$141)-MIN($E$2:$E$141))</f>
+        <f t="shared" ref="J67:J130" si="8">($E67-MIN($E$2:$E$141))/(MAX($E$2:$E$141)-MIN($E$2:$E$141))</f>
         <v>6.2165775401069517E-2</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K130" si="6">($C67-MIN($C$2:$C$141))/(MAX($C$2:$C$141)-MIN($C$2:$C$141))</f>
+        <f t="shared" ref="K67:K130" si="9">($C67-MIN($C$2:$C$141))/(MAX($C$2:$C$141)-MIN($C$2:$C$141))</f>
         <v>2.0204206804488221E-2</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L130" si="7">($D67-MIN($D$2:$D$141))/(MAX($D$2:$D$141)-MIN($D$2:$D$141))</f>
+        <f t="shared" ref="L67:L130" si="10">($D67-MIN($D$2:$D$141))/(MAX($D$2:$D$141)-MIN($D$2:$D$141))</f>
         <v>0.11494252873563218</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M67">
+        <f t="shared" ref="M67:M130" si="11">(H67-MIN($H$2:$H$141))/(MAX($H$2:$H$141)-MIN($H$2:$H$141))</f>
+        <v>0.13106255952384954</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -4201,24 +4741,32 @@
       <c r="G68" s="627">
         <v>42.51</v>
       </c>
+      <c r="H68">
+        <f t="shared" si="6"/>
+        <v>0.11148129164531009</v>
+      </c>
       <c r="I68" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.0678845894566537E-2</v>
       </c>
       <c r="J68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.6737967914438502E-2</v>
       </c>
       <c r="K68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.9332178807230221E-2</v>
       </c>
       <c r="L68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.4482758620689655E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M68">
+        <f t="shared" si="11"/>
+        <v>8.4624556232688053E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -4240,24 +4788,32 @@
       <c r="G69" s="628">
         <v>47.17</v>
       </c>
+      <c r="H69">
+        <f t="shared" si="6"/>
+        <v>0.11581067472306143</v>
+      </c>
       <c r="I69" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.9979102062828636E-2</v>
       </c>
       <c r="J69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.0828877005347594E-2</v>
       </c>
       <c r="K69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.750983151134683E-2</v>
       </c>
       <c r="L69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.4482758620689655E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M69">
+        <f t="shared" si="11"/>
+        <v>9.065184360893197E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -4279,24 +4835,32 @@
       <c r="G70" s="629">
         <v>39.979999999999997</v>
       </c>
+      <c r="H70">
+        <f t="shared" si="6"/>
+        <v>0.26400931797592858</v>
+      </c>
       <c r="I70" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.9381151408925441E-2</v>
       </c>
       <c r="J70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.10494652406417113</v>
       </c>
       <c r="K70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8.4785510697405926E-3</v>
       </c>
       <c r="L70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.8965517241379309E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M70">
+        <f t="shared" si="11"/>
+        <v>0.29697126501675641</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -4318,24 +4882,32 @@
       <c r="G71" s="630">
         <v>45.86</v>
       </c>
+      <c r="H71">
+        <f t="shared" si="6"/>
+        <v>0.19514994977758646</v>
+      </c>
       <c r="I71" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.35895577726843736</v>
       </c>
       <c r="J71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.33221925133689839</v>
       </c>
       <c r="K71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.13576505393801638</v>
       </c>
       <c r="L71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.25287356321839083</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M71">
+        <f t="shared" si="11"/>
+        <v>0.20110652095867992</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -4357,24 +4929,32 @@
       <c r="G72" s="631">
         <v>43.71</v>
       </c>
+      <c r="H72">
+        <f t="shared" si="6"/>
+        <v>0.16111063501585396</v>
+      </c>
       <c r="I72" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.5816367803694213E-2</v>
       </c>
       <c r="J72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.4251336898395724E-2</v>
       </c>
       <c r="K72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.2362809827903453E-2</v>
       </c>
       <c r="L72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.16091954022988506</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M72">
+        <f t="shared" si="11"/>
+        <v>0.15371761393085803</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -4396,24 +4976,32 @@
       <c r="G73" s="632">
         <v>42.52</v>
       </c>
+      <c r="H73">
+        <f t="shared" si="6"/>
+        <v>0.47671942978802184</v>
+      </c>
       <c r="I73" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.1221518134016448E-2</v>
       </c>
       <c r="J73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.31283422459893045</v>
       </c>
       <c r="K73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.9374391167875312E-2</v>
       </c>
       <c r="L73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.8965517241379309E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M73">
+        <f t="shared" si="11"/>
+        <v>0.59310236469074529</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -4435,180 +5023,220 @@
       <c r="G74" s="633">
         <v>42.76</v>
       </c>
+      <c r="H74">
+        <f t="shared" si="6"/>
+        <v>0.24968301960401834</v>
+      </c>
       <c r="I74" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.23474787649993259</v>
       </c>
       <c r="J74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.31082887700534761</v>
       </c>
       <c r="K74">
+        <f t="shared" si="9"/>
+        <v>0.14388281560053398</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="11"/>
+        <v>0.27702645630508022</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75" s="354">
+        <v>1263</v>
+      </c>
+      <c r="D75" s="74">
+        <v>28</v>
+      </c>
+      <c r="E75" s="494">
+        <v>5860</v>
+      </c>
+      <c r="F75" s="214">
+        <v>18615</v>
+      </c>
+      <c r="G75" s="634">
+        <v>34.03</v>
+      </c>
+      <c r="H75">
         <f t="shared" si="6"/>
-        <v>0.14388281560053398</v>
-      </c>
-      <c r="L74">
+        <v>0.31479989255976365</v>
+      </c>
+      <c r="I75" s="560">
+        <f t="shared" si="7"/>
+        <v>0.20287852231360387</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="8"/>
+        <v>0.36029411764705882</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="9"/>
+        <v>4.1887650178590759E-2</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="10"/>
+        <v>0.16091954022988506</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="11"/>
+        <v>0.36768096742089817</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76" s="355">
+        <v>11048</v>
+      </c>
+      <c r="D76" s="75">
+        <v>135</v>
+      </c>
+      <c r="E76" s="495">
+        <v>5160</v>
+      </c>
+      <c r="F76" s="215">
+        <v>31340</v>
+      </c>
+      <c r="G76" s="635">
+        <v>33.5</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="6"/>
+        <v>0.16464582003828973</v>
+      </c>
+      <c r="I76" s="560">
+        <f t="shared" si="7"/>
+        <v>0.41733517594714842</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="8"/>
+        <v>0.31350267379679142</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="9"/>
+        <v>0.39492008514630011</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="10"/>
+        <v>0.77586206896551724</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="11"/>
+        <v>0.15863923340313646</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77" s="356">
+        <v>27819</v>
+      </c>
+      <c r="D77" s="76">
+        <v>132</v>
+      </c>
+      <c r="E77" s="496">
+        <v>12820</v>
+      </c>
+      <c r="F77" s="216">
+        <v>25797</v>
+      </c>
+      <c r="G77" s="636">
+        <v>24.83</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="6"/>
+        <v>0.4969570105050975</v>
+      </c>
+      <c r="I77" s="560">
+        <f t="shared" si="7"/>
+        <v>0.3239180261561278</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="8"/>
+        <v>0.82553475935828879</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="10"/>
+        <v>0.75862068965517238</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="11"/>
+        <v>0.62127675180113751</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78" s="357">
+        <v>21274</v>
+      </c>
+      <c r="D78" s="77">
+        <v>140</v>
+      </c>
+      <c r="E78" s="497">
+        <v>6990</v>
+      </c>
+      <c r="F78" s="217">
+        <v>65913</v>
+      </c>
+      <c r="G78" s="637">
+        <v>31.61</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="6"/>
+        <v>0.10604888261799646</v>
+      </c>
+      <c r="I78" s="560">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75">
-        <v>74</v>
-      </c>
-      <c r="C75" s="354">
-        <v>1263</v>
-      </c>
-      <c r="D75" s="74">
-        <v>28</v>
-      </c>
-      <c r="E75" s="494">
-        <v>5860</v>
-      </c>
-      <c r="F75" s="214">
-        <v>18615</v>
-      </c>
-      <c r="G75" s="634">
-        <v>34.03</v>
-      </c>
-      <c r="I75" s="560">
-        <f t="shared" si="4"/>
-        <v>0.20287852231360387</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="5"/>
-        <v>0.36029411764705882</v>
-      </c>
-      <c r="K75">
-        <f t="shared" si="6"/>
-        <v>4.1887650178590759E-2</v>
-      </c>
-      <c r="L75">
-        <f t="shared" si="7"/>
-        <v>0.16091954022988506</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76">
-        <v>75</v>
-      </c>
-      <c r="C76" s="355">
-        <v>11048</v>
-      </c>
-      <c r="D76" s="75">
-        <v>135</v>
-      </c>
-      <c r="E76" s="495">
-        <v>5160</v>
-      </c>
-      <c r="F76" s="215">
-        <v>31340</v>
-      </c>
-      <c r="G76" s="635">
-        <v>33.5</v>
-      </c>
-      <c r="I76" s="560">
-        <f t="shared" si="4"/>
-        <v>0.41733517594714842</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="5"/>
-        <v>0.31350267379679142</v>
-      </c>
-      <c r="K76">
-        <f t="shared" si="6"/>
-        <v>0.39492008514630011</v>
-      </c>
-      <c r="L76">
-        <f t="shared" si="7"/>
-        <v>0.77586206896551724</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77">
-        <v>76</v>
-      </c>
-      <c r="C77" s="356">
-        <v>27819</v>
-      </c>
-      <c r="D77" s="76">
-        <v>132</v>
-      </c>
-      <c r="E77" s="496">
-        <v>12820</v>
-      </c>
-      <c r="F77" s="216">
-        <v>25797</v>
-      </c>
-      <c r="G77" s="636">
-        <v>24.83</v>
-      </c>
-      <c r="I77" s="560">
-        <f t="shared" si="4"/>
-        <v>0.3239180261561278</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="5"/>
-        <v>0.82553475935828879</v>
-      </c>
-      <c r="K77">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L77">
-        <f t="shared" si="7"/>
-        <v>0.75862068965517238</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78">
-        <v>77</v>
-      </c>
-      <c r="C78" s="357">
-        <v>21274</v>
-      </c>
-      <c r="D78" s="77">
-        <v>140</v>
-      </c>
-      <c r="E78" s="497">
-        <v>6990</v>
-      </c>
-      <c r="F78" s="217">
-        <v>65913</v>
-      </c>
-      <c r="G78" s="637">
-        <v>31.61</v>
-      </c>
-      <c r="I78" s="560">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="J78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.43582887700534761</v>
       </c>
       <c r="K78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.76386333297254394</v>
       </c>
       <c r="L78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.8045977011494253</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M78">
+        <f t="shared" si="11"/>
+        <v>7.7061656446530208E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -4630,24 +5258,32 @@
       <c r="G79" s="638">
         <v>37.57</v>
       </c>
+      <c r="H79">
+        <f t="shared" si="6"/>
+        <v>0.33825578155475061</v>
+      </c>
       <c r="I79" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.19158689497101253</v>
       </c>
       <c r="J79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.37433155080213903</v>
       </c>
       <c r="K79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.29094057798463036</v>
       </c>
       <c r="L79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.60344827586206895</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M79">
+        <f t="shared" si="11"/>
+        <v>0.40033582403651863</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -4669,24 +5305,32 @@
       <c r="G80" s="639">
         <v>42.62</v>
       </c>
+      <c r="H80">
+        <f t="shared" si="6"/>
+        <v>0.2011305376626791</v>
+      </c>
       <c r="I80" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.7358770392341918E-2</v>
       </c>
       <c r="J80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.0855614973262038E-2</v>
       </c>
       <c r="K80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8.4316484468016026E-2</v>
       </c>
       <c r="L80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.20114942528735633</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M80">
+        <f t="shared" si="11"/>
+        <v>0.20943258525351677</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -4708,24 +5352,32 @@
       <c r="G81" s="640">
         <v>45.81</v>
       </c>
+      <c r="H81">
+        <f t="shared" si="6"/>
+        <v>0.13091277303630841</v>
+      </c>
       <c r="I81" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.12216866657678306</v>
       </c>
       <c r="J81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.9572192513368981E-2</v>
       </c>
       <c r="K81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.8381859508604824E-2</v>
       </c>
       <c r="L81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.1724137931034482E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M81">
+        <f t="shared" si="11"/>
+        <v>0.11167670670917441</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -4747,24 +5399,32 @@
       <c r="G82" s="641">
         <v>35.450000000000003</v>
       </c>
+      <c r="H82">
+        <f t="shared" si="6"/>
+        <v>0.19449142304904565</v>
+      </c>
       <c r="I82" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.16817783470405825</v>
       </c>
       <c r="J82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.18382352941176472</v>
       </c>
       <c r="K82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.6709961395533424E-2</v>
       </c>
       <c r="L82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.31034482758620691</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M82">
+        <f t="shared" si="11"/>
+        <v>0.200189732176867</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -4786,24 +5446,32 @@
       <c r="G83" s="642">
         <v>34.94</v>
       </c>
+      <c r="H83">
+        <f t="shared" si="6"/>
+        <v>8.2745349583066063E-2</v>
+      </c>
       <c r="I83" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.41463866792503706</v>
       </c>
       <c r="J83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.14104278074866311</v>
       </c>
       <c r="K83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.16798354800303064</v>
       </c>
       <c r="L83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.31609195402298851</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M83">
+        <f t="shared" si="11"/>
+        <v>4.4618906992196429E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -4825,24 +5493,32 @@
       <c r="G84" s="643">
         <v>40.07</v>
       </c>
+      <c r="H84">
+        <f t="shared" si="6"/>
+        <v>0.18158676283411115</v>
+      </c>
       <c r="I84" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.7771336119724958E-2</v>
       </c>
       <c r="J84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.11163101604278075</v>
       </c>
       <c r="K84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.7112963163401524E-2</v>
       </c>
       <c r="L84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.11494252873563218</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M84">
+        <f t="shared" si="11"/>
+        <v>0.18222410192162275</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -4864,24 +5540,32 @@
       <c r="G85" s="644">
         <v>37.58</v>
       </c>
+      <c r="H85">
+        <f t="shared" si="6"/>
+        <v>0.13047110996850697</v>
+      </c>
       <c r="I85" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.1513752190912768</v>
       </c>
       <c r="J85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.10427807486631016</v>
       </c>
       <c r="K85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.6980914240357904E-2</v>
       </c>
       <c r="L85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.10344827586206896</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M85">
+        <f t="shared" si="11"/>
+        <v>0.11106183152134616</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -4903,24 +5587,32 @@
       <c r="G86" s="645">
         <v>26.84</v>
       </c>
+      <c r="H86">
+        <f t="shared" si="6"/>
+        <v>0.25905075747173784</v>
+      </c>
       <c r="I86" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.25738169071052985</v>
       </c>
       <c r="J86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.34692513368983957</v>
       </c>
       <c r="K86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.115993794422196E-2</v>
       </c>
       <c r="L86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.17241379310344829</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M86">
+        <f t="shared" si="11"/>
+        <v>0.29006804841648887</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -4942,24 +5634,32 @@
       <c r="G87" s="646">
         <v>44.85</v>
       </c>
+      <c r="H87">
+        <f t="shared" si="6"/>
+        <v>0.17630559636703619</v>
+      </c>
       <c r="I87" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.14151611163543212</v>
       </c>
       <c r="J87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.14505347593582887</v>
       </c>
       <c r="K87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.3258649926038173E-2</v>
       </c>
       <c r="L87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.16091954022988506</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M87">
+        <f t="shared" si="11"/>
+        <v>0.17487175924203327</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -4981,24 +5681,32 @@
       <c r="G88" s="647">
         <v>46.53</v>
       </c>
+      <c r="H88">
+        <f t="shared" si="6"/>
+        <v>9.571577847439916E-2</v>
+      </c>
       <c r="I88" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.29236888229742486</v>
       </c>
       <c r="J88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.12165775401069519</v>
       </c>
       <c r="K88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.2217772486199806E-2</v>
       </c>
       <c r="L88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.11494252873563218</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M88">
+        <f t="shared" si="11"/>
+        <v>6.2676099187303796E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -5020,24 +5728,32 @@
       <c r="G89" s="648">
         <v>40.24</v>
       </c>
+      <c r="H89">
+        <f t="shared" si="6"/>
+        <v>0.13265950726468731</v>
+      </c>
       <c r="I89" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.26265673452878524</v>
       </c>
       <c r="J89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.16510695187165775</v>
       </c>
       <c r="K89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.8502363170617311E-2</v>
       </c>
       <c r="L89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.5977011494252873E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M89">
+        <f t="shared" si="11"/>
+        <v>0.11410847792814206</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -5059,24 +5775,32 @@
       <c r="G90" s="649">
         <v>45.64</v>
       </c>
+      <c r="H90">
+        <f t="shared" si="6"/>
+        <v>7.1499503475670315E-2</v>
+      </c>
       <c r="I90" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.8868140757718755E-2</v>
       </c>
       <c r="J90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6711229946524065E-2</v>
       </c>
       <c r="K90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.9656889273730922E-2</v>
       </c>
       <c r="L90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.0229885057471264E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M90">
+        <f t="shared" si="11"/>
+        <v>2.8962647183121311E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -5098,24 +5822,32 @@
       <c r="G91" s="650">
         <v>44.09</v>
       </c>
+      <c r="H91">
+        <f t="shared" si="6"/>
+        <v>0.15244326882918</v>
+      </c>
       <c r="I91" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.13126938115140893</v>
       </c>
       <c r="J91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.11497326203208556</v>
       </c>
       <c r="K91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8.3630984594292315E-2</v>
       </c>
       <c r="L91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.0459770114942528E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M91">
+        <f t="shared" si="11"/>
+        <v>0.14165106637338087</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -5137,24 +5869,32 @@
       <c r="G92" s="651">
         <v>52.57</v>
       </c>
+      <c r="H92">
+        <f t="shared" si="6"/>
+        <v>0.25319877455397372</v>
+      </c>
       <c r="I92" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.6193204799784281E-2</v>
       </c>
       <c r="J92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.15641711229946523</v>
       </c>
       <c r="K92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.280802395641664E-2</v>
       </c>
       <c r="L92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M92">
+        <f t="shared" si="11"/>
+        <v>0.28192102558834153</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -5176,24 +5916,32 @@
       <c r="G93" s="652">
         <v>37.94</v>
       </c>
+      <c r="H93">
+        <f t="shared" si="6"/>
+        <v>0.15000353781928819</v>
+      </c>
       <c r="I93" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.12734259134420925</v>
       </c>
       <c r="J93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.11029411764705882</v>
       </c>
       <c r="K93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.7390049428148788E-2</v>
       </c>
       <c r="L93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.10919540229885058</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M93">
+        <f t="shared" si="11"/>
+        <v>0.13825451779976991</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -5215,24 +5963,32 @@
       <c r="G94" s="653">
         <v>35.06</v>
       </c>
+      <c r="H94">
+        <f t="shared" si="6"/>
+        <v>0.17474402730375427</v>
+      </c>
       <c r="I94" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.5064042065525145</v>
       </c>
       <c r="J94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.39639037433155078</v>
       </c>
       <c r="K94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.9385936428906445E-2</v>
       </c>
       <c r="L94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.11494252873563218</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M94">
+        <f t="shared" si="11"/>
+        <v>0.17269777155528399</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -5254,24 +6010,32 @@
       <c r="G95" s="654">
         <v>40.49</v>
       </c>
+      <c r="H95">
+        <f t="shared" si="6"/>
+        <v>0.13520105930726881</v>
+      </c>
       <c r="I95" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.1309828771740596</v>
       </c>
       <c r="J95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.8262032085561501E-2</v>
       </c>
       <c r="K95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.4100732402496664E-2</v>
       </c>
       <c r="L95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.7701149425287362E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M95">
+        <f t="shared" si="11"/>
+        <v>0.11764677986798215</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -5293,24 +6057,32 @@
       <c r="G96" s="655">
         <v>38.85</v>
       </c>
+      <c r="H96">
+        <f t="shared" si="6"/>
+        <v>0.13955316779139096</v>
+      </c>
       <c r="I96" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.40361669138465689</v>
       </c>
       <c r="J96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.25334224598930483</v>
       </c>
       <c r="K96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.2471046650070354</v>
       </c>
       <c r="L96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.2471264367816092</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M96">
+        <f t="shared" si="11"/>
+        <v>0.12370570513638736</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -5332,24 +6104,32 @@
       <c r="G97" s="656">
         <v>32.33</v>
       </c>
+      <c r="H97">
+        <f t="shared" si="6"/>
+        <v>8.6615609044493072E-2</v>
+      </c>
       <c r="I97" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.4002292031818795E-2</v>
       </c>
       <c r="J97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.2085561497326207E-2</v>
       </c>
       <c r="K97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.3908070859039576E-2</v>
       </c>
       <c r="L97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.1206896551724138</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M97">
+        <f t="shared" si="11"/>
+        <v>5.0007010926571213E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -5371,24 +6151,32 @@
       <c r="G98" s="657">
         <v>32.65</v>
       </c>
+      <c r="H98">
+        <f t="shared" si="6"/>
+        <v>7.8224776500638568E-2</v>
+      </c>
       <c r="I98" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.10029324524740461</v>
       </c>
       <c r="J98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.4090909090909088E-2</v>
       </c>
       <c r="K98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.0372334668254142E-2</v>
       </c>
       <c r="L98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.4712643678160925E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M98">
+        <f t="shared" si="11"/>
+        <v>3.8325448413045894E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -5410,24 +6198,32 @@
       <c r="G99" s="658">
         <v>32.200000000000003</v>
       </c>
+      <c r="H99">
+        <f t="shared" si="6"/>
+        <v>7.8860584046264878E-2</v>
+      </c>
       <c r="I99" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.24177565053256034</v>
       </c>
       <c r="J99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.8877005347593579E-2</v>
       </c>
       <c r="K99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8.4172168705126824E-2</v>
       </c>
       <c r="L99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.14942528735632185</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M99">
+        <f t="shared" si="11"/>
+        <v>3.9210607966878801E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -5449,24 +6245,32 @@
       <c r="G100" s="659">
         <v>50.4</v>
       </c>
+      <c r="H100">
+        <f t="shared" si="6"/>
+        <v>7.2131147540983612E-2</v>
+      </c>
       <c r="I100" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.17186868005932318</v>
       </c>
       <c r="J100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.9465240641711233E-2</v>
       </c>
       <c r="K100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.7293357867013027E-2</v>
       </c>
       <c r="L100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.4482758620689655E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M100">
+        <f t="shared" si="11"/>
+        <v>2.9842010416351209E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -5488,24 +6292,32 @@
       <c r="G101" s="660">
         <v>31.95</v>
       </c>
+      <c r="H101">
+        <f t="shared" si="6"/>
+        <v>9.3086231700093086E-2</v>
+      </c>
       <c r="I101" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.8310637724147226E-2</v>
       </c>
       <c r="J101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.2112299465240643E-2</v>
       </c>
       <c r="K101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8.8501641591802863E-2</v>
       </c>
       <c r="L101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.20114942528735633</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M101">
+        <f t="shared" si="11"/>
+        <v>5.9015292602766167E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -5527,24 +6339,32 @@
       <c r="G102" s="661">
         <v>18.489999999999998</v>
       </c>
+      <c r="H102">
+        <f t="shared" si="6"/>
+        <v>8.0134178158777492E-2</v>
+      </c>
       <c r="I102" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.0024942699204534E-2</v>
       </c>
       <c r="J102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.606951871657754E-2</v>
       </c>
       <c r="K102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.7852942237615905E-2</v>
       </c>
       <c r="L102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.8965517241379309E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M102">
+        <f t="shared" si="11"/>
+        <v>4.0983682231490397E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -5566,24 +6386,32 @@
       <c r="G103" s="662">
         <v>29.11</v>
       </c>
+      <c r="H103">
+        <f t="shared" si="6"/>
+        <v>0.13821646103389038</v>
+      </c>
       <c r="I103" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.10497842793582311</v>
       </c>
       <c r="J103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.6898395721925134E-2</v>
       </c>
       <c r="K103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.7828408557924743E-3</v>
       </c>
       <c r="L103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1494252873563218E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M103">
+        <f t="shared" si="11"/>
+        <v>0.12184476660992002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -5605,24 +6433,32 @@
       <c r="G104" s="663">
         <v>37.53</v>
       </c>
+      <c r="H104">
+        <f t="shared" si="6"/>
+        <v>6.1268858291060019E-2</v>
+      </c>
       <c r="I104" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.14497101253876229</v>
       </c>
       <c r="J104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.074866310160428E-2</v>
       </c>
       <c r="K104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4720207814698561E-2</v>
       </c>
       <c r="L104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.4482758620689655E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M104">
+        <f t="shared" si="11"/>
+        <v>1.4719731399364938E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -5644,24 +6480,32 @@
       <c r="G105" s="664">
         <v>41.6</v>
       </c>
+      <c r="H105">
+        <f t="shared" si="6"/>
+        <v>0.15982197046328142</v>
+      </c>
       <c r="I105" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.38898813536470273</v>
       </c>
       <c r="J105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.28542780748663099</v>
       </c>
       <c r="K105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.15885557600028863</v>
       </c>
       <c r="L105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.7471264367816091E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M105">
+        <f t="shared" si="11"/>
+        <v>0.15192355887718334</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -5683,24 +6527,32 @@
       <c r="G106" s="665">
         <v>52.03</v>
       </c>
+      <c r="H106">
+        <f t="shared" si="6"/>
+        <v>6.7091120695556922E-2</v>
+      </c>
       <c r="I106" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.13533099635971416</v>
       </c>
       <c r="J106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.4090909090909088E-2</v>
       </c>
       <c r="K106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.4737886495652489E-2</v>
       </c>
       <c r="L106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.7471264367816091E-3</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M106">
+        <f t="shared" si="11"/>
+        <v>2.2825377876375379E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -5722,24 +6574,32 @@
       <c r="G107" s="666">
         <v>32.85</v>
       </c>
+      <c r="H107">
+        <f t="shared" si="6"/>
+        <v>0.12669683257918551</v>
+      </c>
       <c r="I107" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.13125252797627074</v>
       </c>
       <c r="J107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.0240641711229946E-2</v>
       </c>
       <c r="K107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3313129126528845E-2</v>
       </c>
       <c r="L107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.2988505747126436E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M107">
+        <f t="shared" si="11"/>
+        <v>0.10580735205982537</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -5761,24 +6621,32 @@
       <c r="G108" s="667">
         <v>41.07</v>
       </c>
+      <c r="H108">
+        <f t="shared" si="6"/>
+        <v>0.18528995756718528</v>
+      </c>
       <c r="I108" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.2466125117972226</v>
       </c>
       <c r="J108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.23128342245989306</v>
       </c>
       <c r="K108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4359418407475557E-2</v>
       </c>
       <c r="L108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.17241379310344829</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M108">
+        <f t="shared" si="11"/>
+        <v>0.18737962141841527</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -5800,24 +6668,32 @@
       <c r="G109" s="668">
         <v>34.229999999999997</v>
       </c>
+      <c r="H109">
+        <f t="shared" si="6"/>
+        <v>0.20130462229080451</v>
+      </c>
       <c r="I109" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.12943238506134555</v>
       </c>
       <c r="J109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.16042780748663102</v>
       </c>
       <c r="K109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.9302233286430711E-2</v>
       </c>
       <c r="L109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.11494252873563218</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M109">
+        <f t="shared" si="11"/>
+        <v>0.20967494266626005</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -5839,24 +6715,32 @@
       <c r="G110" s="669">
         <v>53.48</v>
       </c>
+      <c r="H110">
+        <f t="shared" si="6"/>
+        <v>0.17277749874434958</v>
+      </c>
       <c r="I110" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.693002561682621E-2</v>
       </c>
       <c r="J110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.3556149732620322E-2</v>
       </c>
       <c r="K110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7.5765775516830822E-4</v>
       </c>
       <c r="L110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.6206896551724144E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M110">
+        <f t="shared" si="11"/>
+        <v>0.16996000671714004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -5878,24 +6762,32 @@
       <c r="G111" s="670">
         <v>34.479999999999997</v>
       </c>
+      <c r="H111">
+        <f t="shared" si="6"/>
+        <v>0.17815156447820582</v>
+      </c>
       <c r="I111" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.5519077794256442E-2</v>
       </c>
       <c r="J111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.10026737967914438</v>
       </c>
       <c r="K111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1617418912580727E-2</v>
       </c>
       <c r="L111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.1724137931034482E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M111">
+        <f t="shared" si="11"/>
+        <v>0.17744168204479446</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -5917,24 +6809,32 @@
       <c r="G112" s="671">
         <v>31.87</v>
       </c>
+      <c r="H112">
+        <f t="shared" si="6"/>
+        <v>0.23195181156162906</v>
+      </c>
       <c r="I112" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.26407240124039372</v>
       </c>
       <c r="J112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.31350267379679142</v>
       </c>
       <c r="K112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.1539127611213335E-2</v>
       </c>
       <c r="L112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.21264367816091953</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M112">
+        <f t="shared" si="11"/>
+        <v>0.25234139506652703</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -5956,24 +6856,32 @@
       <c r="G113" s="672">
         <v>25.57</v>
       </c>
+      <c r="H113">
+        <f t="shared" si="6"/>
+        <v>0.29192641021742438</v>
+      </c>
       <c r="I113" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.6925133689839571E-2</v>
       </c>
       <c r="K113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.102788902117834E-2</v>
       </c>
       <c r="L113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.1206896551724138</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M113">
+        <f t="shared" si="11"/>
+        <v>0.33583692661951769</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -5995,24 +6903,32 @@
       <c r="G114" s="673">
         <v>41.45</v>
       </c>
+      <c r="H114">
+        <f t="shared" si="6"/>
+        <v>0.28068030235660296</v>
+      </c>
       <c r="I114" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.19237899420250776</v>
       </c>
       <c r="J114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.30614973262032086</v>
       </c>
       <c r="K114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.7972724320813943E-2</v>
       </c>
       <c r="L114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.32183908045977011</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M114">
+        <f t="shared" si="11"/>
+        <v>0.32018030240214473</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -6034,24 +6950,32 @@
       <c r="G115" s="674">
         <v>27.28</v>
       </c>
+      <c r="H115">
+        <f t="shared" si="6"/>
+        <v>0.17407639323731997</v>
+      </c>
       <c r="I115" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.3729270594580017E-2</v>
       </c>
       <c r="J115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.1497326203208559E-2</v>
       </c>
       <c r="K115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.8735632183908046E-2</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M115">
+        <f t="shared" si="11"/>
+        <v>0.17176830370540733</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -6073,24 +6997,32 @@
       <c r="G116" s="675">
         <v>29.91</v>
       </c>
+      <c r="H116">
+        <f t="shared" si="6"/>
+        <v>0.27734863532700654</v>
+      </c>
       <c r="I116" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.11824187676958339</v>
       </c>
       <c r="J116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.22058823529411764</v>
       </c>
       <c r="K116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.8688891294151605E-2</v>
       </c>
       <c r="L116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.11494252873563218</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M116">
+        <f t="shared" si="11"/>
+        <v>0.31554201693081968</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -6112,24 +7044,32 @@
       <c r="G117" s="676">
         <v>11.36</v>
       </c>
+      <c r="H117">
+        <f t="shared" si="6"/>
+        <v>0.30743613694513261</v>
+      </c>
       <c r="I117" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.30413239854388568</v>
       </c>
       <c r="J117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.47459893048128343</v>
       </c>
       <c r="K117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.5068730382075981E-2</v>
       </c>
       <c r="L117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.0229885057471264E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M117">
+        <f t="shared" si="11"/>
+        <v>0.3574292824901058</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -6151,24 +7091,32 @@
       <c r="G118" s="677">
         <v>30.73</v>
       </c>
+      <c r="H118">
+        <f t="shared" si="6"/>
+        <v>0.28299956811310889</v>
+      </c>
       <c r="I118" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.63057840097074291</v>
       </c>
       <c r="J118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.80080213903743314</v>
       </c>
       <c r="K118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.9019013601760659E-2</v>
       </c>
       <c r="L118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.6206896551724144E-2</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M118">
+        <f t="shared" si="11"/>
+        <v>0.32340914146888849</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -6190,24 +7138,32 @@
       <c r="G119" s="678">
         <v>41.37</v>
       </c>
+      <c r="H119">
+        <f t="shared" si="6"/>
+        <v>0.23937914450193107</v>
+      </c>
       <c r="I119" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.3517089119590131</v>
       </c>
       <c r="J119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.40775401069518719</v>
       </c>
       <c r="K119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.9494173251073347E-2</v>
       </c>
       <c r="L119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.0229885057471264E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M119">
+        <f t="shared" si="11"/>
+        <v>0.26268159117906292</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -6229,24 +7185,32 @@
       <c r="G120" s="679">
         <v>42.08</v>
       </c>
+      <c r="H120">
+        <f t="shared" si="6"/>
+        <v>0.19701257298420316</v>
+      </c>
       <c r="I120" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.3596467574491034</v>
       </c>
       <c r="J120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.33622994652406418</v>
       </c>
       <c r="K120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.17245733665259588</v>
       </c>
       <c r="L120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.7471264367816091E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M120">
+        <f t="shared" si="11"/>
+        <v>0.2036996306785458</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -6268,24 +7232,32 @@
       <c r="G121" s="680">
         <v>30.8</v>
       </c>
+      <c r="H121">
+        <f t="shared" si="6"/>
+        <v>0.20938333827453307</v>
+      </c>
       <c r="I121" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.34392274504516651</v>
       </c>
       <c r="J121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.34625668449197861</v>
       </c>
       <c r="K121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.14630010462892809</v>
       </c>
       <c r="L121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.26436781609195403</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M121">
+        <f t="shared" si="11"/>
+        <v>0.22092198225377513</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -6307,24 +7279,32 @@
       <c r="G122" s="681">
         <v>35.43</v>
       </c>
+      <c r="H122">
+        <f t="shared" si="6"/>
+        <v>0.42542434091729864</v>
+      </c>
       <c r="I122" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.12248887690440879</v>
       </c>
       <c r="J122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.36229946524064172</v>
       </c>
       <c r="K122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.562218133275607E-2</v>
       </c>
       <c r="L122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.13218390804597702</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M122">
+        <f t="shared" si="11"/>
+        <v>0.52169028678924401</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -6346,24 +7326,32 @@
       <c r="G123" s="682">
         <v>32.74</v>
       </c>
+      <c r="H123">
+        <f t="shared" si="6"/>
+        <v>0.13682652191467409</v>
+      </c>
       <c r="I123" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.26483079412161253</v>
       </c>
       <c r="J123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.17245989304812834</v>
       </c>
       <c r="K123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.6361438828156007E-2</v>
       </c>
       <c r="L123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.12643678160919541</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M123">
+        <f t="shared" si="11"/>
+        <v>0.11990971896997979</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -6385,24 +7373,32 @@
       <c r="G124" s="683">
         <v>25.55</v>
       </c>
+      <c r="H124">
+        <f t="shared" si="6"/>
+        <v>0.16692814559146532</v>
+      </c>
       <c r="I124" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.1577120129432385</v>
       </c>
       <c r="J124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.1463903743315508</v>
       </c>
       <c r="K124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4034707940974852E-2</v>
       </c>
       <c r="L124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.10344827586206896</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M124">
+        <f t="shared" si="11"/>
+        <v>0.16181664499921983</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -6424,24 +7420,32 @@
       <c r="G125" s="684">
         <v>34.96</v>
       </c>
+      <c r="H125">
+        <f t="shared" si="6"/>
+        <v>0.2809087192664837</v>
+      </c>
       <c r="I125" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.1777335850074154</v>
       </c>
       <c r="J125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.29010695187165775</v>
       </c>
       <c r="K125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.551394451058917E-2</v>
       </c>
       <c r="L125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.10344827586206896</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M125">
+        <f t="shared" si="11"/>
+        <v>0.32049830021678022</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -6463,24 +7467,32 @@
       <c r="G126" s="685">
         <v>47.14</v>
       </c>
+      <c r="H126">
+        <f t="shared" si="6"/>
+        <v>0.24558316838941427</v>
+      </c>
       <c r="I126" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.1190508291762168</v>
       </c>
       <c r="J126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.19251336898395721</v>
       </c>
       <c r="K126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.0612620413464657E-3</v>
       </c>
       <c r="L126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.4712643678160925E-2</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M126">
+        <f t="shared" si="11"/>
+        <v>0.27131871896087267</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -6502,24 +7514,32 @@
       <c r="G127" s="686">
         <v>32.270000000000003</v>
       </c>
+      <c r="H127">
+        <f t="shared" si="6"/>
+        <v>0.26356837179538456</v>
+      </c>
       <c r="I127" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.31053660509640019</v>
       </c>
       <c r="J127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.40909090909090912</v>
       </c>
       <c r="K127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.2145614604755205E-2</v>
       </c>
       <c r="L127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.16091954022988506</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M127">
+        <f t="shared" si="11"/>
+        <v>0.29635738786616334</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -6541,24 +7561,32 @@
       <c r="G128" s="687">
         <v>29.12</v>
       </c>
+      <c r="H128">
+        <f t="shared" si="6"/>
+        <v>0.22930574098798398</v>
+      </c>
       <c r="I128" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.39407779425643791</v>
       </c>
       <c r="J128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.42780748663101603</v>
       </c>
       <c r="K128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.2485117436952051</v>
       </c>
       <c r="L128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.17241379310344829</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M128">
+        <f t="shared" si="11"/>
+        <v>0.248657584352908</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -6580,24 +7608,32 @@
       <c r="G129" s="688">
         <v>35.26</v>
       </c>
+      <c r="H129">
+        <f t="shared" si="6"/>
+        <v>0.26939428379004082</v>
+      </c>
       <c r="I129" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.28953754887420791</v>
       </c>
       <c r="J129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.39639037433155078</v>
       </c>
       <c r="K129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.13525994876790418</v>
       </c>
       <c r="L129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.1724137931034482E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M129">
+        <f t="shared" si="11"/>
+        <v>0.30446811523537037</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -6619,24 +7655,32 @@
       <c r="G130" s="689">
         <v>38.090000000000003</v>
       </c>
+      <c r="H130">
+        <f t="shared" si="6"/>
+        <v>0.28337855940645074</v>
+      </c>
       <c r="I130" s="560">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.37980315491438588</v>
       </c>
       <c r="J130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.52005347593582885</v>
       </c>
       <c r="K130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.9175596204495436E-2</v>
       </c>
       <c r="L130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.7471264367816091E-2</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M130">
+        <f t="shared" si="11"/>
+        <v>0.32393676616669004</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -6658,24 +7702,32 @@
       <c r="G131" s="690">
         <v>25.25</v>
       </c>
+      <c r="H131">
+        <f t="shared" ref="H131:H141" si="12">E131/F131</f>
+        <v>0.31348788198103267</v>
+      </c>
       <c r="I131" s="560">
-        <f t="shared" ref="I131:I141" si="8">($F131-MIN($F$2:$F$141))/(MAX($F$2:$F$141)-MIN($F$2:$F$141))</f>
+        <f t="shared" ref="I131:I141" si="13">($F131-MIN($F$2:$F$141))/(MAX($F$2:$F$141)-MIN($F$2:$F$141))</f>
         <v>0.33697923688822973</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J141" si="9">($E131-MIN($E$2:$E$141))/(MAX($E$2:$E$141)-MIN($E$2:$E$141))</f>
+        <f t="shared" ref="J131:J141" si="14">($E131-MIN($E$2:$E$141))/(MAX($E$2:$E$141)-MIN($E$2:$E$141))</f>
         <v>0.52540106951871657</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K141" si="10">($C131-MIN($C$2:$C$141))/(MAX($C$2:$C$141)-MIN($C$2:$C$141))</f>
+        <f t="shared" ref="K131:K141" si="15">($C131-MIN($C$2:$C$141))/(MAX($C$2:$C$141)-MIN($C$2:$C$141))</f>
         <v>0.15131507738932784</v>
       </c>
       <c r="L131">
-        <f t="shared" ref="L131:L141" si="11">($D131-MIN($D$2:$D$141))/(MAX($D$2:$D$141)-MIN($D$2:$D$141))</f>
+        <f t="shared" ref="L131:L141" si="16">($D131-MIN($D$2:$D$141))/(MAX($D$2:$D$141)-MIN($D$2:$D$141))</f>
         <v>6.8965517241379309E-2</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M131">
+        <f t="shared" ref="M131:M141" si="17">(H131-MIN($H$2:$H$141))/(MAX($H$2:$H$141)-MIN($H$2:$H$141))</f>
+        <v>0.3658544104596253</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -6697,24 +7749,32 @@
       <c r="G132" s="691">
         <v>21.95</v>
       </c>
+      <c r="H132">
+        <f t="shared" si="12"/>
+        <v>0.16711114934618032</v>
+      </c>
       <c r="I132" s="560">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.67276189834164757</v>
       </c>
       <c r="J132">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.48796791443850268</v>
       </c>
       <c r="K132">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.11740087311036548</v>
       </c>
       <c r="L132">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.11494252873563218</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M132">
+        <f t="shared" si="17"/>
+        <v>0.16207141945571626</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -6736,24 +7796,32 @@
       <c r="G133" s="692">
         <v>38.630000000000003</v>
       </c>
+      <c r="H133">
+        <f t="shared" si="12"/>
+        <v>0.26236470749417728</v>
+      </c>
       <c r="I133" s="560">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.6272246191182419</v>
       </c>
       <c r="J133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.7366310160427807</v>
       </c>
       <c r="K133">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>5.9277699606739544E-2</v>
       </c>
       <c r="L133">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8.0459770114942528E-2</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M133">
+        <f t="shared" si="17"/>
+        <v>0.29468166859678646</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -6775,24 +7843,32 @@
       <c r="G134" s="693">
         <v>9.35</v>
       </c>
+      <c r="H134">
+        <f t="shared" si="12"/>
+        <v>9.9535997605148932E-2</v>
+      </c>
       <c r="I134" s="560">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.11434879331266011</v>
       </c>
       <c r="J134">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>5.7486631016042782E-2</v>
       </c>
       <c r="K134">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8.2620774254067893E-3</v>
       </c>
       <c r="L134">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>5.7471264367816091E-3</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M134">
+        <f t="shared" si="17"/>
+        <v>6.7994537895022175E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -6814,24 +7890,32 @@
       <c r="G135" s="694">
         <v>0.63</v>
       </c>
+      <c r="H135">
+        <f t="shared" si="12"/>
+        <v>0.16968144709460542</v>
+      </c>
       <c r="I135" s="560">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>9.9720237292705946E-2</v>
       </c>
       <c r="J135">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.11029411764705882</v>
       </c>
       <c r="K135">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.5802576036367571E-2</v>
       </c>
       <c r="L135">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3.4482758620689655E-2</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M135">
+        <f t="shared" si="17"/>
+        <v>0.1656497406377534</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -6853,24 +7937,32 @@
       <c r="G136" s="695">
         <v>6.67</v>
       </c>
+      <c r="H136">
+        <f t="shared" si="12"/>
+        <v>0.26238900028645085</v>
+      </c>
       <c r="I136" s="560">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.18332883915329648</v>
       </c>
       <c r="J136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.2747326203208556</v>
       </c>
       <c r="K136">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>4.9247754085940038E-2</v>
       </c>
       <c r="L136">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8.0459770114942528E-2</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M136">
+        <f t="shared" si="17"/>
+        <v>0.29471548857473123</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -6892,24 +7984,32 @@
       <c r="G137" s="696">
         <v>28.06</v>
       </c>
+      <c r="H137">
+        <f t="shared" si="12"/>
+        <v>0.27891355140186919</v>
+      </c>
       <c r="I137" s="560">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.35079884050155047</v>
       </c>
       <c r="J137">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.47927807486631013</v>
       </c>
       <c r="K137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>4.830970162716023E-2</v>
       </c>
       <c r="L137">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.31034482758620691</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M137">
+        <f t="shared" si="17"/>
+        <v>0.31772066426544171</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -6931,8 +8031,12 @@
       <c r="G138" s="697">
         <v>27.73</v>
       </c>
+      <c r="H138">
+        <f t="shared" si="12"/>
+        <v>0.2884921005889502</v>
+      </c>
       <c r="I138" s="560">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.7905487393824997</v>
       </c>
       <c r="J138">
@@ -6940,15 +8044,19 @@
         <v>1</v>
       </c>
       <c r="K138">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.17819388822744164</v>
       </c>
       <c r="L138">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.22413793103448276</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M138">
+        <f t="shared" si="17"/>
+        <v>0.33105574401264926</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -6970,24 +8078,32 @@
       <c r="G139" s="698">
         <v>34.79</v>
       </c>
+      <c r="H139">
+        <f t="shared" si="12"/>
+        <v>0.27616789603090974</v>
+      </c>
       <c r="I139" s="560">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.27300458406363759</v>
       </c>
       <c r="J139">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.38903743315508021</v>
       </c>
       <c r="K139">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3.1893783598513546E-2</v>
       </c>
       <c r="L139">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.14942528735632185</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M139">
+        <f t="shared" si="17"/>
+        <v>0.31389821343129298</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -7009,24 +8125,32 @@
       <c r="G140" s="699">
         <v>35.479999999999997</v>
       </c>
+      <c r="H140">
+        <f t="shared" si="12"/>
+        <v>0.32886869170055011</v>
+      </c>
       <c r="I140" s="560">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.17100916812727518</v>
       </c>
       <c r="J140">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.33622994652406418</v>
       </c>
       <c r="K140">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2.208031172204784E-2</v>
       </c>
       <c r="L140">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.16091954022988506</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M140">
+        <f t="shared" si="17"/>
+        <v>0.38726729044598296</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -7048,21 +8172,29 @@
       <c r="G141" s="700">
         <v>15.57</v>
       </c>
+      <c r="H141">
+        <f t="shared" si="12"/>
+        <v>7.9661187859231625E-2</v>
+      </c>
       <c r="I141" s="560">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>5.6289604961574757E-2</v>
       </c>
       <c r="J141">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.1390374331550801E-2</v>
       </c>
       <c r="K141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.4526824692427024E-3</v>
       </c>
       <c r="L141">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.2988505747126436E-2</v>
+      </c>
+      <c r="M141">
+        <f t="shared" si="17"/>
+        <v>4.0325193848656106E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7074,7 +8206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18756738-B0CE-48E1-B7C0-42B597FECA32}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
